--- a/RP_SE_List01.xlsx
+++ b/RP_SE_List01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltz\Documents\CppProjects\GitManagements\RobotProject221209\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930B2A04-8D42-4487-8F84-42CE5DABD9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2325ED0-3B7C-4F5E-BE93-D4400A73ED7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19785" yWindow="4440" windowWidth="18645" windowHeight="11040" xr2:uid="{8143E8DC-BBDA-4BB3-A077-6BF50A51A791}"/>
+    <workbookView xWindow="-27375" yWindow="4935" windowWidth="18645" windowHeight="11040" xr2:uid="{8143E8DC-BBDA-4BB3-A077-6BF50A51A791}"/>
   </bookViews>
   <sheets>
     <sheet name="RP_BGM_List01" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -60,6 +60,10 @@
   </si>
   <si>
     <t>MachinGun.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TargetDamaged.mp3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -424,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A7C091-FEE7-4409-980A-879D2B596F5B}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -479,6 +483,20 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
